--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Noviembre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Noviembre.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -281,7 +281,7 @@
         </is>
       </c>
       <c r="B8" s="65">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
